--- a/data/trans_dic/P15_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares convivientes con COVID-19</t>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -671,7 +672,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,17 +682,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +702,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,44</t>
+          <t>0,0; 9,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,24</t>
+          <t>0,0; 9,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,33</t>
+          <t>0,0; 10,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,08</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,16</t>
+          <t>0,75; 7,78</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>11,81%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,09</t>
+          <t>0,77; 7,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 16,17</t>
+          <t>6,95; 19,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,84</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,5</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,39</t>
+          <t>1,54; 7,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,72</t>
+          <t>7,48; 17,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,76</t>
+          <t>0,26; 2,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,15</t>
+          <t>1,7; 5,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 13,06</t>
+          <t>8,43; 16,35</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,9</t>
+          <t>0,86; 8,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,82</t>
+          <t>1,43; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,98</t>
+          <t>5,95; 17,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,9</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,08</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,59</t>
+          <t>2,82; 10,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,16</t>
+          <t>4,72; 14,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,68</t>
+          <t>0,37; 3,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,89</t>
+          <t>0,84; 4,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,99</t>
+          <t>2,86; 8,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,1</t>
+          <t>6,87; 14,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 2,7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 5,53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 14,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 1,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 6,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 12,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 1,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 2,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 4,96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 12,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3355</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6716</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11111</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9682</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11539</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12444</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11970</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11732</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1765; 18400</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2637</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11526</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47641</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13986</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43888</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6561</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25512</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91529</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15325</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16764</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2902; 28309</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27762; 77942</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12752</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11269</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5855; 28374</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28053; 65574</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1930; 18767</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14986</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12891; 44811</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>65346; 126692</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5405</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10839</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10866</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30022</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3935</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19006</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28318</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15053</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29872</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>58340</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21128</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2864; 27785</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4035; 26012</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16395; 48724</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12631</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12949</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9736; 36345</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15445; 47216</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2361; 21800</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6375; 34121</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17947; 51530</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>41415; 84825</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13476</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22391</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>81024</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8059</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8486</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34888</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>75561</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15902</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>156585</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2379; 20383</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4997; 29140</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10667; 42253</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>53498; 112509</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2072; 19557</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2139; 19497</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20366; 54402</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>52741; 101406</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6509; 30844</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11039; 41791</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38275; 79653</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>122560; 198278</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>